--- a/converter/data/xlsx/10.9._BSMJENA.XLSX
+++ b/converter/data/xlsx/10.9._BSMJENA.XLSX
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkuns.MARTA\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5940" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="108">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -398,12 +403,15 @@
   <si>
     <t>3E</t>
   </si>
+  <si>
+    <t>3C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -646,13 +654,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FF00FF00"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -674,6 +675,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2504,7 +2512,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,7 +2775,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2830,19 +2836,19 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2860,10 +2866,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2911,10 +2917,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2967,10 +2973,10 @@
     <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3000,10 +3006,10 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3133,14 +3139,66 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3166,70 +3224,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3314,7 +3322,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3356,7 +3364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3388,9 +3396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3422,6 +3431,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3597,135 +3607,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="6" customWidth="1"/>
-    <col min="31" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="6" customWidth="1"/>
+    <col min="31" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="404" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="420" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="404"/>
-      <c r="F1" s="404"/>
-      <c r="G1" s="404"/>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
-      <c r="K1" s="404"/>
-      <c r="L1" s="404"/>
-      <c r="M1" s="404"/>
-      <c r="N1" s="404"/>
-      <c r="O1" s="404"/>
-      <c r="P1" s="404"/>
-      <c r="Q1" s="404"/>
-      <c r="R1" s="404"/>
-      <c r="S1" s="404"/>
-      <c r="T1" s="404"/>
-      <c r="U1" s="404"/>
-      <c r="V1" s="404"/>
-      <c r="W1" s="404"/>
-      <c r="X1" s="404"/>
-      <c r="Y1" s="404"/>
-      <c r="Z1" s="404"/>
-      <c r="AA1" s="404"/>
-      <c r="AB1" s="404"/>
-      <c r="AC1" s="404"/>
-      <c r="AD1" s="404"/>
-      <c r="AE1" s="404"/>
-      <c r="AF1" s="404"/>
-      <c r="AG1" s="404"/>
-      <c r="AH1" s="404"/>
-      <c r="AI1" s="404"/>
-      <c r="AJ1" s="404"/>
-    </row>
-    <row r="2" spans="1:37" ht="18">
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="420"/>
+      <c r="G1" s="420"/>
+      <c r="H1" s="420"/>
+      <c r="I1" s="420"/>
+      <c r="J1" s="420"/>
+      <c r="K1" s="420"/>
+      <c r="L1" s="420"/>
+      <c r="M1" s="420"/>
+      <c r="N1" s="420"/>
+      <c r="O1" s="420"/>
+      <c r="P1" s="420"/>
+      <c r="Q1" s="420"/>
+      <c r="R1" s="420"/>
+      <c r="S1" s="420"/>
+      <c r="T1" s="420"/>
+      <c r="U1" s="420"/>
+      <c r="V1" s="420"/>
+      <c r="W1" s="420"/>
+      <c r="X1" s="420"/>
+      <c r="Y1" s="420"/>
+      <c r="Z1" s="420"/>
+      <c r="AA1" s="420"/>
+      <c r="AB1" s="420"/>
+      <c r="AC1" s="420"/>
+      <c r="AD1" s="420"/>
+      <c r="AE1" s="420"/>
+      <c r="AF1" s="420"/>
+      <c r="AG1" s="420"/>
+      <c r="AH1" s="420"/>
+      <c r="AI1" s="420"/>
+      <c r="AJ1" s="420"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="405" t="s">
+      <c r="B2" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="406"/>
-      <c r="D2" s="406"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="406"/>
-      <c r="G2" s="406"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="408" t="s">
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="422"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="424" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="406"/>
-      <c r="K2" s="406"/>
-      <c r="L2" s="406"/>
-      <c r="M2" s="406"/>
-      <c r="N2" s="406"/>
-      <c r="O2" s="407"/>
-      <c r="P2" s="405" t="s">
+      <c r="J2" s="422"/>
+      <c r="K2" s="422"/>
+      <c r="L2" s="422"/>
+      <c r="M2" s="422"/>
+      <c r="N2" s="422"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="406"/>
-      <c r="S2" s="406"/>
-      <c r="T2" s="406"/>
-      <c r="U2" s="406"/>
-      <c r="V2" s="407"/>
-      <c r="W2" s="408" t="s">
+      <c r="Q2" s="422"/>
+      <c r="R2" s="422"/>
+      <c r="S2" s="422"/>
+      <c r="T2" s="422"/>
+      <c r="U2" s="422"/>
+      <c r="V2" s="423"/>
+      <c r="W2" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="406"/>
-      <c r="Y2" s="406"/>
-      <c r="Z2" s="406"/>
-      <c r="AA2" s="406"/>
-      <c r="AB2" s="406"/>
-      <c r="AC2" s="407"/>
-      <c r="AD2" s="409" t="s">
+      <c r="X2" s="422"/>
+      <c r="Y2" s="422"/>
+      <c r="Z2" s="422"/>
+      <c r="AA2" s="422"/>
+      <c r="AB2" s="422"/>
+      <c r="AC2" s="423"/>
+      <c r="AD2" s="425" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="410"/>
-      <c r="AF2" s="410"/>
-      <c r="AG2" s="410"/>
-      <c r="AH2" s="410"/>
-      <c r="AI2" s="410"/>
-      <c r="AJ2" s="411"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1">
+      <c r="AE2" s="426"/>
+      <c r="AF2" s="426"/>
+      <c r="AG2" s="426"/>
+      <c r="AH2" s="426"/>
+      <c r="AI2" s="426"/>
+      <c r="AJ2" s="427"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>64</v>
       </c>
@@ -3879,13 +3889,13 @@
       <c r="AG4" s="27"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="31"/>
-      <c r="AJ4" s="262"/>
-    </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="AJ4" s="261"/>
+    </row>
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="73"/>
@@ -3961,9 +3971,9 @@
       <c r="AG5" s="34"/>
       <c r="AH5" s="34"/>
       <c r="AI5" s="82"/>
-      <c r="AJ5" s="224"/>
-    </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
+      <c r="AJ5" s="223"/>
+    </row>
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -4017,7 +4027,7 @@
       <c r="AI6" s="37"/>
       <c r="AJ6" s="41"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -4069,10 +4079,10 @@
       <c r="AA7" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" s="317" t="s">
+      <c r="AB7" s="315" t="s">
         <v>87</v>
       </c>
-      <c r="AC7" s="318" t="s">
+      <c r="AC7" s="316" t="s">
         <v>87</v>
       </c>
       <c r="AD7" s="24"/>
@@ -4093,11 +4103,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="247" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="70" t="s">
@@ -4151,7 +4161,7 @@
       <c r="Y8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="323" t="s">
+      <c r="Z8" s="321" t="s">
         <v>68</v>
       </c>
       <c r="AA8" s="12" t="s">
@@ -4173,7 +4183,7 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="35"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -4217,7 +4227,7 @@
       <c r="W9" s="33"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="324"/>
+      <c r="Z9" s="322"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="26"/>
@@ -4229,41 +4239,41 @@
       <c r="AI9" s="12"/>
       <c r="AJ9" s="35"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="357" t="s">
+      <c r="B10" s="355" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="357" t="s">
+      <c r="C10" s="355" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="358" t="s">
+      <c r="E10" s="356" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="358" t="s">
+      <c r="F10" s="356" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="358" t="s">
+      <c r="G10" s="356" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="359" t="s">
+      <c r="H10" s="357" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="360" t="s">
+      <c r="I10" s="358" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="357" t="s">
+      <c r="J10" s="355" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="360" t="s">
+      <c r="K10" s="358" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="358" t="s">
         <v>91</v>
       </c>
       <c r="M10" s="12"/>
@@ -4271,33 +4281,33 @@
       <c r="O10" s="26"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="12"/>
-      <c r="R10" s="357" t="s">
+      <c r="R10" s="355" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="357" t="s">
+      <c r="S10" s="355" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="360" t="s">
+      <c r="T10" s="358" t="s">
         <v>88</v>
       </c>
-      <c r="U10" s="360" t="s">
+      <c r="U10" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="V10" s="361" t="s">
+      <c r="V10" s="359" t="s">
         <v>93</v>
       </c>
       <c r="W10" s="33"/>
       <c r="X10" s="34"/>
-      <c r="Y10" s="362" t="s">
+      <c r="Y10" s="360" t="s">
         <v>68</v>
       </c>
-      <c r="Z10" s="363" t="s">
+      <c r="Z10" s="361" t="s">
         <v>68</v>
       </c>
-      <c r="AA10" s="360" t="s">
+      <c r="AA10" s="358" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="362" t="s">
+      <c r="AB10" s="360" t="s">
         <v>71</v>
       </c>
       <c r="AC10" s="26"/>
@@ -4309,11 +4319,11 @@
       <c r="AI10" s="12"/>
       <c r="AJ10" s="35"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="255" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="91" t="s">
@@ -4322,7 +4332,7 @@
       <c r="D11" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="364" t="s">
+      <c r="E11" s="362" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -4333,7 +4343,7 @@
       <c r="I11" s="44"/>
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
-      <c r="L11" s="375" t="s">
+      <c r="L11" s="373" t="s">
         <v>103</v>
       </c>
       <c r="M11" s="34" t="s">
@@ -4356,10 +4366,10 @@
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
       <c r="V11" s="46"/>
-      <c r="W11" s="366" t="s">
+      <c r="W11" s="364" t="s">
         <v>90</v>
       </c>
-      <c r="X11" s="367" t="s">
+      <c r="X11" s="365" t="s">
         <v>90</v>
       </c>
       <c r="Y11" s="40"/>
@@ -4375,7 +4385,7 @@
       <c r="AI11" s="40"/>
       <c r="AJ11" s="29"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4395,11 +4405,11 @@
       <c r="O12" s="42"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="25"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
+      <c r="R12" s="196"/>
+      <c r="S12" s="196"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="393"/>
+      <c r="U12" s="196"/>
+      <c r="V12" s="391"/>
       <c r="W12" s="28"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
@@ -4419,7 +4429,7 @@
       <c r="AI12" s="25"/>
       <c r="AJ12" s="43"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -4479,7 +4489,7 @@
       <c r="AI13" s="12"/>
       <c r="AJ13" s="35"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -4523,7 +4533,7 @@
       <c r="AI14" s="12"/>
       <c r="AJ14" s="35"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>97</v>
       </c>
@@ -4550,13 +4560,13 @@
       <c r="V15" s="26"/>
       <c r="W15" s="33"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="397" t="s">
+      <c r="Y15" s="395" t="s">
         <v>106</v>
       </c>
-      <c r="Z15" s="397" t="s">
+      <c r="Z15" s="395" t="s">
         <v>106</v>
       </c>
-      <c r="AA15" s="397" t="s">
+      <c r="AA15" s="395" t="s">
         <v>106</v>
       </c>
       <c r="AB15" s="12"/>
@@ -4569,7 +4579,7 @@
       <c r="AI15" s="12"/>
       <c r="AJ15" s="35"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -4578,10 +4588,10 @@
       <c r="D16" s="73"/>
       <c r="E16" s="80"/>
       <c r="F16" s="73"/>
-      <c r="G16" s="364" t="s">
+      <c r="G16" s="362" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="365" t="s">
+      <c r="H16" s="363" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="22"/>
@@ -4590,29 +4600,29 @@
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="226"/>
+      <c r="O16" s="225"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="291"/>
+      <c r="U16" s="289"/>
       <c r="V16" s="26"/>
       <c r="W16" s="33"/>
       <c r="X16" s="12"/>
-      <c r="Y16" s="368" t="s">
+      <c r="Y16" s="366" t="s">
         <v>94</v>
       </c>
-      <c r="Z16" s="368" t="s">
+      <c r="Z16" s="366" t="s">
         <v>96</v>
       </c>
-      <c r="AA16" s="368" t="s">
+      <c r="AA16" s="366" t="s">
         <v>96</v>
       </c>
-      <c r="AB16" s="368" t="s">
+      <c r="AB16" s="366" t="s">
         <v>92</v>
       </c>
-      <c r="AC16" s="361" t="s">
+      <c r="AC16" s="359" t="s">
         <v>71</v>
       </c>
       <c r="AD16" s="82"/>
@@ -4621,12 +4631,12 @@
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
-      <c r="AJ16" s="369" t="s">
+      <c r="AJ16" s="367" t="s">
         <v>68</v>
       </c>
       <c r="AK16" s="119"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
@@ -4649,7 +4659,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="167"/>
+      <c r="O17" s="166"/>
       <c r="P17" s="82"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -4685,7 +4695,7 @@
       </c>
       <c r="AK17" s="119"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>91</v>
       </c>
       <c r="N18" s="12"/>
-      <c r="O18" s="167"/>
+      <c r="O18" s="166"/>
       <c r="P18" s="82"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -4740,7 +4750,7 @@
       <c r="AJ18" s="35"/>
       <c r="AK18" s="119"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4757,7 +4767,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="167"/>
+      <c r="O19" s="166"/>
       <c r="P19" s="82" t="s">
         <v>68</v>
       </c>
@@ -4805,7 +4815,7 @@
       </c>
       <c r="AK19" s="119"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>98</v>
       </c>
@@ -4822,18 +4832,18 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="292"/>
-      <c r="Q20" s="293"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="290"/>
+      <c r="Q20" s="291"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
       <c r="V20" s="30"/>
-      <c r="W20" s="395" t="s">
+      <c r="W20" s="393" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="397" t="s">
+      <c r="X20" s="395" t="s">
         <v>106</v>
       </c>
       <c r="Y20" s="34"/>
@@ -4841,8 +4851,8 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="26"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
+      <c r="AD20" s="159"/>
+      <c r="AE20" s="159"/>
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
@@ -4850,11 +4860,11 @@
       <c r="AJ20" s="35"/>
       <c r="AK20" s="119"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="157"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
@@ -4867,14 +4877,14 @@
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="395" t="s">
+      <c r="O21" s="166"/>
+      <c r="P21" s="393" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="396" t="s">
+      <c r="Q21" s="394" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="396" t="s">
+      <c r="R21" s="394" t="s">
         <v>106</v>
       </c>
       <c r="S21" s="34" t="s">
@@ -4901,7 +4911,7 @@
       <c r="AJ21" s="45"/>
       <c r="AK21" s="119"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
@@ -4946,7 +4956,7 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
-      <c r="AC22" s="165"/>
+      <c r="AC22" s="164"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="25"/>
       <c r="AF22" s="25"/>
@@ -4957,7 +4967,7 @@
       <c r="AK22" s="119"/>
       <c r="AL22" s="119"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
@@ -5032,7 +5042,7 @@
       <c r="AJ23" s="29"/>
       <c r="AM23" s="119"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
@@ -5083,10 +5093,10 @@
       <c r="AD24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AE24" s="303" t="s">
+      <c r="AE24" s="301" t="s">
         <v>71</v>
       </c>
-      <c r="AF24" s="303" t="s">
+      <c r="AF24" s="301" t="s">
         <v>71</v>
       </c>
       <c r="AG24" s="40" t="s">
@@ -5098,7 +5108,7 @@
       <c r="AI24" s="40"/>
       <c r="AJ24" s="29"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>76</v>
       </c>
@@ -5173,7 +5183,7 @@
       </c>
       <c r="AL25" s="119"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>84</v>
       </c>
@@ -5209,8 +5219,8 @@
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
       <c r="AC26" s="46"/>
-      <c r="AD26" s="180"/>
-      <c r="AE26" s="181"/>
+      <c r="AD26" s="179"/>
+      <c r="AE26" s="180"/>
       <c r="AF26" s="40"/>
       <c r="AG26" s="40"/>
       <c r="AH26" s="40"/>
@@ -5218,7 +5228,7 @@
       <c r="AJ26" s="29"/>
       <c r="AL26" s="119"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
@@ -5229,16 +5239,16 @@
       <c r="D27" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="418" t="s">
+      <c r="E27" s="402" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="418" t="s">
+      <c r="F27" s="402" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="418" t="s">
+      <c r="G27" s="402" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="419" t="s">
+      <c r="H27" s="403" t="s">
         <v>71</v>
       </c>
       <c r="I27" s="24" t="s">
@@ -5250,10 +5260,10 @@
       <c r="K27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="251"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="251"/>
-      <c r="O27" s="252"/>
+      <c r="L27" s="250"/>
+      <c r="M27" s="250"/>
+      <c r="N27" s="250"/>
+      <c r="O27" s="251"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
@@ -5279,36 +5289,36 @@
       <c r="AD27" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AE27" s="302" t="s">
+      <c r="AE27" s="300" t="s">
         <v>68</v>
       </c>
-      <c r="AF27" s="302" t="s">
+      <c r="AF27" s="300" t="s">
         <v>68</v>
       </c>
-      <c r="AG27" s="423" t="s">
+      <c r="AG27" s="407" t="s">
         <v>69</v>
       </c>
-      <c r="AH27" s="423" t="s">
+      <c r="AH27" s="407" t="s">
         <v>69</v>
       </c>
-      <c r="AI27" s="423" t="s">
+      <c r="AI27" s="407" t="s">
         <v>69</v>
       </c>
-      <c r="AJ27" s="431" t="s">
+      <c r="AJ27" s="415" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="116"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="263"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="70"/>
-      <c r="H28" s="158"/>
+      <c r="H28" s="157"/>
       <c r="I28" s="105"/>
       <c r="J28" s="114"/>
       <c r="K28" s="56"/>
@@ -5327,42 +5337,42 @@
       <c r="T28" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="U28" s="155"/>
+      <c r="U28" s="154"/>
       <c r="V28" s="57"/>
       <c r="W28" s="113"/>
       <c r="X28" s="56"/>
       <c r="Y28" s="56"/>
       <c r="Z28" s="56"/>
-      <c r="AA28" s="264"/>
-      <c r="AB28" s="384" t="s">
+      <c r="AA28" s="263"/>
+      <c r="AB28" s="382" t="s">
         <v>90</v>
       </c>
-      <c r="AC28" s="385" t="s">
+      <c r="AC28" s="383" t="s">
         <v>90</v>
       </c>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="228"/>
+      <c r="AD28" s="226"/>
+      <c r="AE28" s="227"/>
       <c r="AF28" s="127"/>
       <c r="AG28" s="127"/>
-      <c r="AH28" s="228"/>
+      <c r="AH28" s="227"/>
       <c r="AI28" s="127"/>
-      <c r="AJ28" s="199"/>
-      <c r="AK28" s="279"/>
-      <c r="AL28" s="279"/>
-    </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+      <c r="AJ28" s="198"/>
+      <c r="AK28" s="277"/>
+      <c r="AL28" s="277"/>
+    </row>
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="248"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="70"/>
       <c r="D29" s="70"/>
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
-      <c r="H29" s="158"/>
+      <c r="H29" s="157"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="159"/>
+      <c r="J29" s="158"/>
       <c r="K29" s="12"/>
       <c r="L29" s="22"/>
       <c r="M29" s="12"/>
@@ -5371,25 +5381,25 @@
       <c r="P29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q29" s="285" t="s">
+      <c r="Q29" s="283" t="s">
         <v>92</v>
       </c>
-      <c r="R29" s="284" t="s">
+      <c r="R29" s="282" t="s">
         <v>92</v>
       </c>
-      <c r="S29" s="284" t="s">
+      <c r="S29" s="282" t="s">
         <v>89</v>
       </c>
-      <c r="T29" s="284" t="s">
+      <c r="T29" s="282" t="s">
         <v>89</v>
       </c>
-      <c r="U29" s="285" t="s">
+      <c r="U29" s="283" t="s">
         <v>90</v>
       </c>
-      <c r="V29" s="385" t="s">
+      <c r="V29" s="383" t="s">
         <v>90</v>
       </c>
-      <c r="W29" s="161"/>
+      <c r="W29" s="160"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -5403,20 +5413,20 @@
       <c r="AH29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AI29" s="284" t="s">
+      <c r="AI29" s="282" t="s">
         <v>90</v>
       </c>
-      <c r="AJ29" s="386" t="s">
+      <c r="AJ29" s="384" t="s">
         <v>90</v>
       </c>
-      <c r="AK29" s="280"/>
-      <c r="AL29" s="281"/>
-    </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+      <c r="AK29" s="278"/>
+      <c r="AL29" s="279"/>
+    </row>
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="248"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="70"/>
       <c r="D30" s="70"/>
       <c r="E30" s="70" t="s">
@@ -5428,9 +5438,9 @@
       <c r="G30" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="158"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="229"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="228"/>
       <c r="K30" s="12"/>
       <c r="L30" s="22" t="s">
         <v>87</v>
@@ -5445,25 +5455,25 @@
       <c r="P30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="371" t="s">
+      <c r="Q30" s="369" t="s">
         <v>92</v>
       </c>
-      <c r="R30" s="372" t="s">
+      <c r="R30" s="370" t="s">
         <v>92</v>
       </c>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="22"/>
       <c r="V30" s="26"/>
-      <c r="W30" s="230"/>
-      <c r="X30" s="175"/>
-      <c r="Y30" s="175"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="174"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="22"/>
-      <c r="AB30" s="372" t="s">
+      <c r="AB30" s="370" t="s">
         <v>90</v>
       </c>
-      <c r="AC30" s="374" t="s">
+      <c r="AC30" s="372" t="s">
         <v>90</v>
       </c>
       <c r="AD30" s="22"/>
@@ -5475,20 +5485,20 @@
       <c r="AH30" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="372" t="s">
+      <c r="AI30" s="370" t="s">
         <v>90</v>
       </c>
-      <c r="AJ30" s="373" t="s">
+      <c r="AJ30" s="371" t="s">
         <v>90</v>
       </c>
-      <c r="AK30" s="281"/>
-      <c r="AL30" s="282"/>
-    </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1">
+      <c r="AK30" s="279"/>
+      <c r="AL30" s="280"/>
+    </row>
+    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="249" t="s">
+      <c r="B31" s="248" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="147" t="s">
@@ -5506,7 +5516,7 @@
       <c r="I31" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="250" t="s">
+      <c r="J31" s="249" t="s">
         <v>89</v>
       </c>
       <c r="K31" s="123" t="s">
@@ -5527,7 +5537,7 @@
       <c r="T31" s="123"/>
       <c r="U31" s="149"/>
       <c r="V31" s="150"/>
-      <c r="W31" s="265" t="s">
+      <c r="W31" s="264" t="s">
         <v>87</v>
       </c>
       <c r="X31" s="123" t="s">
@@ -5542,46 +5552,56 @@
       <c r="AA31" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="AB31" s="253"/>
+      <c r="AB31" s="252"/>
       <c r="AC31" s="150"/>
-      <c r="AD31" s="152"/>
-      <c r="AE31" s="153"/>
-      <c r="AF31" s="153"/>
-      <c r="AG31" s="153"/>
-      <c r="AH31" s="266"/>
-      <c r="AI31" s="153"/>
-      <c r="AJ31" s="154"/>
-      <c r="AK31" s="179" t="s">
+      <c r="AD31" s="430" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE31" s="431" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF31" s="431" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG31" s="431" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH31" s="431" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI31" s="152"/>
+      <c r="AJ31" s="153"/>
+      <c r="AK31" s="178" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="69"/>
       <c r="C32" s="70"/>
       <c r="D32" s="70"/>
-      <c r="E32" s="222"/>
-      <c r="F32" s="222"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
       <c r="G32" s="70"/>
       <c r="H32" s="78"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="175"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="174"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="223"/>
+      <c r="L32" s="222"/>
       <c r="M32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="348" t="s">
+      <c r="N32" s="346" t="s">
         <v>88</v>
       </c>
-      <c r="O32" s="349" t="s">
+      <c r="O32" s="347" t="s">
         <v>88</v>
       </c>
       <c r="P32" s="22"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="174"/>
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="49"/>
@@ -5597,30 +5617,30 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="26"/>
-      <c r="AD32" s="201"/>
+      <c r="AD32" s="200"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
-      <c r="AG32" s="310" t="s">
+      <c r="AG32" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="AH32" s="310" t="s">
+      <c r="AH32" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="AI32" s="311" t="s">
+      <c r="AI32" s="309" t="s">
         <v>70</v>
       </c>
-      <c r="AJ32" s="312" t="s">
+      <c r="AJ32" s="310" t="s">
         <v>70</v>
       </c>
-      <c r="AK32" s="171" t="s">
+      <c r="AK32" s="170" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="231"/>
+      <c r="B33" s="230"/>
       <c r="C33" s="135"/>
       <c r="D33" s="87" t="s">
         <v>68</v>
@@ -5631,21 +5651,21 @@
       <c r="F33" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="294"/>
-      <c r="H33" s="295"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="198"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="293"/>
+      <c r="I33" s="234"/>
+      <c r="J33" s="197"/>
       <c r="K33" s="118"/>
-      <c r="L33" s="347" t="s">
+      <c r="L33" s="345" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="347" t="s">
+      <c r="M33" s="345" t="s">
         <v>88</v>
       </c>
-      <c r="N33" s="296" t="s">
+      <c r="N33" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="O33" s="319" t="s">
+      <c r="O33" s="317" t="s">
         <v>88</v>
       </c>
       <c r="P33" s="34"/>
@@ -5663,37 +5683,37 @@
       <c r="V33" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="W33" s="194"/>
+      <c r="W33" s="193"/>
       <c r="X33" s="118"/>
       <c r="Y33" s="118"/>
       <c r="Z33" s="34"/>
       <c r="AA33" s="34"/>
       <c r="AB33" s="118"/>
-      <c r="AC33" s="232"/>
-      <c r="AD33" s="352" t="s">
+      <c r="AC33" s="231"/>
+      <c r="AD33" s="350" t="s">
         <v>88</v>
       </c>
-      <c r="AE33" s="353" t="s">
+      <c r="AE33" s="351" t="s">
         <v>88</v>
       </c>
-      <c r="AF33" s="353" t="s">
+      <c r="AF33" s="351" t="s">
         <v>88</v>
       </c>
-      <c r="AG33" s="403" t="s">
+      <c r="AG33" s="401" t="s">
         <v>88</v>
       </c>
-      <c r="AH33" s="309" t="s">
+      <c r="AH33" s="307" t="s">
         <v>68</v>
       </c>
-      <c r="AI33" s="309" t="s">
+      <c r="AI33" s="307" t="s">
         <v>68</v>
       </c>
       <c r="AJ33" s="45"/>
-      <c r="AK33" s="172" t="s">
+      <c r="AK33" s="171" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>63</v>
       </c>
@@ -5720,8 +5740,8 @@
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
       <c r="T34" s="40"/>
-      <c r="U34" s="176"/>
-      <c r="V34" s="177"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="176"/>
       <c r="W34" s="47"/>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
@@ -5732,28 +5752,28 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="40"/>
       <c r="AF34" s="40"/>
-      <c r="AG34" s="313" t="s">
+      <c r="AG34" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="AH34" s="314" t="s">
+      <c r="AH34" s="312" t="s">
         <v>70</v>
       </c>
-      <c r="AI34" s="315" t="s">
+      <c r="AI34" s="313" t="s">
         <v>70</v>
       </c>
-      <c r="AJ34" s="316" t="s">
+      <c r="AJ34" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="AK34" s="173"/>
-    </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1">
+      <c r="AK34" s="172"/>
+    </row>
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="305" t="s">
+      <c r="B35" s="303" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="306" t="s">
+      <c r="C35" s="304" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="73"/>
@@ -5768,16 +5788,16 @@
         <v>69</v>
       </c>
       <c r="K35" s="40"/>
-      <c r="L35" s="307" t="s">
+      <c r="L35" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="307" t="s">
+      <c r="M35" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="307" t="s">
+      <c r="N35" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="308" t="s">
+      <c r="O35" s="306" t="s">
         <v>68</v>
       </c>
       <c r="P35" s="11"/>
@@ -5803,36 +5823,36 @@
       <c r="AJ35" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="AK35" s="202" t="s">
+      <c r="AK35" s="201" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="267"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="254"/>
-      <c r="E36" s="255"/>
-      <c r="F36" s="255"/>
-      <c r="G36" s="341" t="s">
+      <c r="B36" s="265"/>
+      <c r="C36" s="253"/>
+      <c r="D36" s="253"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="339" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="342" t="s">
+      <c r="H36" s="340" t="s">
         <v>88</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="51"/>
-      <c r="K36" s="296"/>
-      <c r="L36" s="296" t="s">
+      <c r="K36" s="294"/>
+      <c r="L36" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="320" t="s">
+      <c r="M36" s="318" t="s">
         <v>88</v>
       </c>
-      <c r="N36" s="196"/>
-      <c r="O36" s="203"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="202"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="40"/>
       <c r="R36" s="40"/>
@@ -5843,99 +5863,99 @@
       <c r="W36" s="47"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
-      <c r="Z36" s="181"/>
-      <c r="AA36" s="181"/>
-      <c r="AB36" s="181"/>
-      <c r="AC36" s="203"/>
+      <c r="Z36" s="180"/>
+      <c r="AA36" s="180"/>
+      <c r="AB36" s="180"/>
+      <c r="AC36" s="202"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="40"/>
       <c r="AF36" s="40"/>
       <c r="AG36" s="40"/>
       <c r="AH36" s="40"/>
       <c r="AI36" s="93"/>
-      <c r="AJ36" s="234"/>
-      <c r="AK36" s="171" t="s">
+      <c r="AJ36" s="233"/>
+      <c r="AK36" s="170" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="79"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
-      <c r="G37" s="345" t="s">
+      <c r="G37" s="343" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="346" t="s">
+      <c r="H37" s="344" t="s">
         <v>88</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="40"/>
       <c r="K37" s="51"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="235"/>
-      <c r="N37" s="235"/>
-      <c r="O37" s="205"/>
-      <c r="P37" s="206"/>
-      <c r="Q37" s="204"/>
-      <c r="R37" s="204"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="176"/>
+      <c r="M37" s="234"/>
+      <c r="N37" s="234"/>
+      <c r="O37" s="204"/>
+      <c r="P37" s="205"/>
+      <c r="Q37" s="203"/>
+      <c r="R37" s="203"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="175"/>
       <c r="U37" s="40"/>
-      <c r="V37" s="168"/>
+      <c r="V37" s="167"/>
       <c r="W37" s="47"/>
-      <c r="X37" s="204"/>
-      <c r="Y37" s="206"/>
-      <c r="Z37" s="206"/>
-      <c r="AA37" s="206"/>
-      <c r="AB37" s="206"/>
-      <c r="AC37" s="205"/>
-      <c r="AD37" s="180"/>
+      <c r="X37" s="203"/>
+      <c r="Y37" s="205"/>
+      <c r="Z37" s="205"/>
+      <c r="AA37" s="205"/>
+      <c r="AB37" s="205"/>
+      <c r="AC37" s="204"/>
+      <c r="AD37" s="179"/>
       <c r="AE37" s="40"/>
       <c r="AF37" s="40"/>
       <c r="AG37" s="40"/>
       <c r="AH37" s="40"/>
       <c r="AI37" s="40"/>
       <c r="AJ37" s="29"/>
-      <c r="AK37" s="173" t="s">
+      <c r="AK37" s="172" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="236"/>
-      <c r="C38" s="297"/>
-      <c r="D38" s="297"/>
+      <c r="B38" s="235"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="295"/>
       <c r="E38" s="135"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="343" t="s">
+      <c r="F38" s="181"/>
+      <c r="G38" s="341" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="344" t="s">
+      <c r="H38" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="237"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="298"/>
-      <c r="L38" s="329" t="s">
+      <c r="I38" s="236"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="296"/>
+      <c r="L38" s="327" t="s">
         <v>88</v>
       </c>
-      <c r="M38" s="329" t="s">
+      <c r="M38" s="327" t="s">
         <v>88</v>
       </c>
-      <c r="N38" s="330" t="s">
+      <c r="N38" s="328" t="s">
         <v>88</v>
       </c>
-      <c r="O38" s="351" t="s">
+      <c r="O38" s="349" t="s">
         <v>88</v>
       </c>
-      <c r="P38" s="180"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="40"/>
       <c r="R38" s="34"/>
       <c r="S38" s="34"/>
@@ -5945,102 +5965,102 @@
       <c r="W38" s="44"/>
       <c r="X38" s="34"/>
       <c r="Y38" s="82"/>
-      <c r="Z38" s="278" t="s">
+      <c r="Z38" s="276" t="s">
         <v>69</v>
       </c>
-      <c r="AA38" s="278" t="s">
+      <c r="AA38" s="276" t="s">
         <v>69</v>
       </c>
-      <c r="AB38" s="278" t="s">
+      <c r="AB38" s="276" t="s">
         <v>69</v>
       </c>
-      <c r="AC38" s="321" t="s">
+      <c r="AC38" s="319" t="s">
         <v>69</v>
       </c>
-      <c r="AD38" s="354" t="s">
+      <c r="AD38" s="352" t="s">
         <v>88</v>
       </c>
-      <c r="AE38" s="355" t="s">
+      <c r="AE38" s="353" t="s">
         <v>88</v>
       </c>
-      <c r="AF38" s="356" t="s">
+      <c r="AF38" s="354" t="s">
         <v>88</v>
       </c>
-      <c r="AG38" s="383" t="s">
+      <c r="AG38" s="381" t="s">
         <v>88</v>
       </c>
       <c r="AH38" s="40"/>
-      <c r="AI38" s="181"/>
-      <c r="AJ38" s="210"/>
-      <c r="AK38" s="172" t="s">
+      <c r="AI38" s="180"/>
+      <c r="AJ38" s="209"/>
+      <c r="AK38" s="171" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="401" t="s">
+      <c r="B39" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="402" t="s">
+      <c r="C39" s="400" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="402" t="s">
+      <c r="D39" s="400" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="402" t="s">
+      <c r="E39" s="400" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="402" t="s">
+      <c r="F39" s="400" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="289"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="238"/>
-      <c r="J39" s="197"/>
+      <c r="G39" s="287"/>
+      <c r="H39" s="297"/>
+      <c r="I39" s="237"/>
+      <c r="J39" s="196"/>
       <c r="K39" s="112"/>
-      <c r="L39" s="350" t="s">
+      <c r="L39" s="348" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="350" t="s">
+      <c r="M39" s="348" t="s">
         <v>68</v>
       </c>
-      <c r="N39" s="290" t="s">
+      <c r="N39" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="322" t="s">
+      <c r="O39" s="320" t="s">
         <v>68</v>
       </c>
-      <c r="P39" s="238"/>
+      <c r="P39" s="237"/>
       <c r="Q39" s="112"/>
       <c r="R39" s="112"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
       <c r="V39" s="24"/>
-      <c r="W39" s="332" t="s">
+      <c r="W39" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="X39" s="333" t="s">
+      <c r="X39" s="331" t="s">
         <v>105</v>
       </c>
-      <c r="Y39" s="332" t="s">
+      <c r="Y39" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="Z39" s="290" t="s">
+      <c r="Z39" s="288" t="s">
         <v>69</v>
       </c>
-      <c r="AA39" s="290" t="s">
+      <c r="AA39" s="288" t="s">
         <v>69</v>
       </c>
-      <c r="AB39" s="290" t="s">
+      <c r="AB39" s="288" t="s">
         <v>69</v>
       </c>
-      <c r="AC39" s="322" t="s">
+      <c r="AC39" s="320" t="s">
         <v>69</v>
       </c>
-      <c r="AD39" s="221" t="s">
+      <c r="AD39" s="220" t="s">
         <v>88</v>
       </c>
       <c r="AE39" s="112" t="s">
@@ -6052,13 +6072,13 @@
       <c r="AG39" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="AH39" s="197"/>
-      <c r="AI39" s="197"/>
-      <c r="AJ39" s="207"/>
-      <c r="AK39" s="172"/>
-    </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1">
-      <c r="A40" s="156" t="s">
+      <c r="AH39" s="196"/>
+      <c r="AI39" s="196"/>
+      <c r="AJ39" s="206"/>
+      <c r="AK39" s="171"/>
+    </row>
+    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="155" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="69"/>
@@ -6073,10 +6093,10 @@
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
-      <c r="N40" s="277" t="s">
+      <c r="N40" s="275" t="s">
         <v>71</v>
       </c>
-      <c r="O40" s="325" t="s">
+      <c r="O40" s="323" t="s">
         <v>71</v>
       </c>
       <c r="P40" s="36" t="s">
@@ -6092,10 +6112,10 @@
       <c r="T40" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U40" s="286" t="s">
+      <c r="U40" s="284" t="s">
         <v>71</v>
       </c>
-      <c r="V40" s="287" t="s">
+      <c r="V40" s="285" t="s">
         <v>71</v>
       </c>
       <c r="W40" s="33" t="s">
@@ -6107,64 +6127,64 @@
       <c r="Y40" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Z40" s="304" t="s">
+      <c r="Z40" s="302" t="s">
         <v>70</v>
       </c>
-      <c r="AA40" s="277" t="s">
+      <c r="AA40" s="275" t="s">
         <v>70</v>
       </c>
-      <c r="AB40" s="286" t="s">
+      <c r="AB40" s="284" t="s">
         <v>70</v>
       </c>
-      <c r="AC40" s="287" t="s">
+      <c r="AC40" s="285" t="s">
         <v>70</v>
       </c>
       <c r="AD40" s="36"/>
-      <c r="AE40" s="277" t="s">
+      <c r="AE40" s="275" t="s">
         <v>71</v>
       </c>
-      <c r="AF40" s="277" t="s">
+      <c r="AF40" s="275" t="s">
         <v>71</v>
       </c>
-      <c r="AG40" s="277" t="s">
+      <c r="AG40" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="AH40" s="277" t="s">
+      <c r="AH40" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="AI40" s="277" t="s">
+      <c r="AI40" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="AJ40" s="288" t="s">
+      <c r="AJ40" s="286" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1">
+    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="69"/>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
-      <c r="E41" s="420" t="s">
+      <c r="E41" s="404" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="420" t="s">
+      <c r="F41" s="404" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="420" t="s">
+      <c r="G41" s="404" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="421" t="s">
+      <c r="H41" s="405" t="s">
         <v>71</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
-      <c r="L41" s="422" t="s">
+      <c r="L41" s="406" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="422" t="s">
+      <c r="M41" s="406" t="s">
         <v>71</v>
       </c>
       <c r="N41" s="40"/>
@@ -6176,59 +6196,59 @@
       <c r="T41" s="11"/>
       <c r="U41" s="36"/>
       <c r="V41" s="38"/>
-      <c r="W41" s="425" t="s">
+      <c r="W41" s="409" t="s">
         <v>71</v>
       </c>
-      <c r="X41" s="426" t="s">
+      <c r="X41" s="410" t="s">
         <v>71</v>
       </c>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="426" t="s">
+      <c r="Z41" s="410" t="s">
         <v>70</v>
       </c>
-      <c r="AA41" s="428" t="s">
+      <c r="AA41" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="AB41" s="426" t="s">
+      <c r="AB41" s="410" t="s">
         <v>70</v>
       </c>
-      <c r="AC41" s="429" t="s">
+      <c r="AC41" s="413" t="s">
         <v>70</v>
       </c>
       <c r="AD41" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AE41" s="430" t="s">
+      <c r="AE41" s="414" t="s">
         <v>68</v>
       </c>
-      <c r="AF41" s="428" t="s">
+      <c r="AF41" s="412" t="s">
         <v>68</v>
       </c>
       <c r="AG41" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AH41" s="430" t="s">
+      <c r="AH41" s="414" t="s">
         <v>68</v>
       </c>
-      <c r="AI41" s="428" t="s">
+      <c r="AI41" s="412" t="s">
         <v>68</v>
       </c>
       <c r="AJ41" s="54"/>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1">
+    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="259" t="s">
+      <c r="B42" s="258" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="260" t="s">
+      <c r="C42" s="259" t="s">
         <v>71</v>
       </c>
       <c r="D42" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="182"/>
+      <c r="E42" s="181"/>
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
       <c r="H42" s="74"/>
@@ -6248,7 +6268,7 @@
       <c r="V42" s="48"/>
       <c r="W42" s="44"/>
       <c r="X42" s="40"/>
-      <c r="Y42" s="166"/>
+      <c r="Y42" s="165"/>
       <c r="Z42" s="40"/>
       <c r="AA42" s="11"/>
       <c r="AB42" s="40"/>
@@ -6261,7 +6281,7 @@
       <c r="AI42" s="40"/>
       <c r="AJ42" s="54"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>44</v>
       </c>
@@ -6284,21 +6304,21 @@
       <c r="R43" s="40"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="328" t="s">
-        <v>91</v>
-      </c>
-      <c r="V43" s="389" t="s">
+      <c r="U43" s="326" t="s">
+        <v>91</v>
+      </c>
+      <c r="V43" s="387" t="s">
         <v>91</v>
       </c>
       <c r="W43" s="44"/>
       <c r="X43" s="40"/>
-      <c r="Y43" s="162"/>
-      <c r="Z43" s="390"/>
-      <c r="AA43" s="388"/>
-      <c r="AB43" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC43" s="308" t="s">
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="388"/>
+      <c r="AA43" s="386"/>
+      <c r="AB43" s="305" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC43" s="306" t="s">
         <v>91</v>
       </c>
       <c r="AD43" s="11"/>
@@ -6309,63 +6329,63 @@
       <c r="AI43" s="40"/>
       <c r="AJ43" s="54"/>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="44" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="76"/>
-      <c r="D44" s="239"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="76"/>
       <c r="F44" s="76"/>
       <c r="G44" s="76"/>
       <c r="H44" s="77"/>
-      <c r="I44" s="225"/>
-      <c r="J44" s="220"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="423" t="s">
+      <c r="I44" s="224"/>
+      <c r="J44" s="219"/>
+      <c r="K44" s="219"/>
+      <c r="L44" s="407" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="424" t="s">
+      <c r="M44" s="408" t="s">
         <v>71</v>
       </c>
-      <c r="N44" s="326" t="s">
+      <c r="N44" s="324" t="s">
         <v>104</v>
       </c>
-      <c r="O44" s="327"/>
-      <c r="P44" s="221"/>
+      <c r="O44" s="325"/>
+      <c r="P44" s="220"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
-      <c r="S44" s="221"/>
-      <c r="T44" s="197"/>
-      <c r="U44" s="197"/>
-      <c r="V44" s="261"/>
-      <c r="W44" s="427" t="s">
+      <c r="S44" s="220"/>
+      <c r="T44" s="196"/>
+      <c r="U44" s="196"/>
+      <c r="V44" s="260"/>
+      <c r="W44" s="411" t="s">
         <v>71</v>
       </c>
-      <c r="X44" s="423" t="s">
+      <c r="X44" s="407" t="s">
         <v>71</v>
       </c>
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
-      <c r="AA44" s="221"/>
+      <c r="AA44" s="220"/>
       <c r="AB44" s="25"/>
       <c r="AC44" s="42"/>
-      <c r="AD44" s="238"/>
+      <c r="AD44" s="237"/>
       <c r="AE44" s="125"/>
       <c r="AF44" s="125"/>
       <c r="AG44" s="24"/>
       <c r="AH44" s="25"/>
       <c r="AI44" s="25"/>
-      <c r="AJ44" s="211"/>
-    </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1">
+      <c r="AJ44" s="210"/>
+    </row>
+    <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="69"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="70"/>
       <c r="F45" s="70"/>
       <c r="G45" s="70"/>
@@ -6377,16 +6397,16 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="378" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q45" s="368" t="s">
-        <v>91</v>
-      </c>
-      <c r="R45" s="368" t="s">
-        <v>91</v>
-      </c>
-      <c r="S45" s="368" t="s">
+      <c r="P45" s="376" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q45" s="366" t="s">
+        <v>91</v>
+      </c>
+      <c r="R45" s="366" t="s">
+        <v>91</v>
+      </c>
+      <c r="S45" s="366" t="s">
         <v>91</v>
       </c>
       <c r="T45" s="12"/>
@@ -6404,15 +6424,15 @@
       <c r="AF45" s="122"/>
       <c r="AG45" s="12"/>
       <c r="AH45" s="12"/>
-      <c r="AI45" s="368" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="380" t="s">
+      <c r="AI45" s="366" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="378" t="s">
         <v>91</v>
       </c>
       <c r="AK45" s="137"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>19</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>103</v>
       </c>
       <c r="P46" s="136"/>
-      <c r="Q46" s="175"/>
+      <c r="Q46" s="174"/>
       <c r="R46" s="34"/>
       <c r="S46" s="34"/>
       <c r="T46" s="34"/>
@@ -6446,10 +6466,10 @@
       <c r="Y46" s="118"/>
       <c r="Z46" s="34"/>
       <c r="AA46" s="34"/>
-      <c r="AB46" s="376" t="s">
+      <c r="AB46" s="374" t="s">
         <v>103</v>
       </c>
-      <c r="AC46" s="387" t="s">
+      <c r="AC46" s="385" t="s">
         <v>103</v>
       </c>
       <c r="AD46" s="136"/>
@@ -6465,11 +6485,11 @@
       </c>
       <c r="AK46" s="111"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="240"/>
+      <c r="B47" s="239"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -6514,14 +6534,14 @@
       <c r="AF47" s="125"/>
       <c r="AG47" s="25"/>
       <c r="AH47" s="25"/>
-      <c r="AI47" s="381" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ47" s="382" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1">
+      <c r="AI47" s="379" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ47" s="380" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>11</v>
       </c>
@@ -6585,7 +6605,7 @@
       <c r="AI48" s="56"/>
       <c r="AJ48" s="58"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>83</v>
       </c>
@@ -6645,7 +6665,7 @@
       </c>
       <c r="AJ49" s="45"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>72</v>
       </c>
@@ -6705,7 +6725,7 @@
       <c r="AI50" s="25"/>
       <c r="AJ50" s="43"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>59</v>
       </c>
@@ -6737,64 +6757,64 @@
       <c r="Q51" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="R51" s="283" t="s">
-        <v>91</v>
-      </c>
-      <c r="S51" s="391" t="s">
+      <c r="R51" s="281" t="s">
+        <v>91</v>
+      </c>
+      <c r="S51" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="T51" s="392" t="s">
+      <c r="T51" s="390" t="s">
         <v>106</v>
       </c>
-      <c r="U51" s="196" t="s">
+      <c r="U51" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="V51" s="196" t="s">
+      <c r="V51" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="W51" s="258" t="s">
+      <c r="W51" s="257" t="s">
         <v>91</v>
       </c>
       <c r="X51" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="Y51" s="391"/>
+      <c r="Y51" s="389"/>
       <c r="Z51" s="127" t="s">
         <v>91</v>
       </c>
       <c r="AA51" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="AB51" s="233" t="s">
+      <c r="AB51" s="232" t="s">
         <v>106</v>
       </c>
-      <c r="AC51" s="257" t="s">
+      <c r="AC51" s="256" t="s">
         <v>106</v>
       </c>
-      <c r="AD51" s="394" t="s">
+      <c r="AD51" s="392" t="s">
         <v>106</v>
       </c>
-      <c r="AE51" s="391" t="s">
+      <c r="AE51" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="AF51" s="391" t="s">
+      <c r="AF51" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="AG51" s="391" t="s">
+      <c r="AG51" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="AH51" s="391" t="s">
+      <c r="AH51" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="AI51" s="300" t="s">
+      <c r="AI51" s="298" t="s">
         <v>106</v>
       </c>
-      <c r="AJ51" s="301" t="s">
+      <c r="AJ51" s="299" t="s">
         <v>106</v>
       </c>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>77</v>
       </c>
@@ -6816,7 +6836,7 @@
       <c r="I52" s="104"/>
       <c r="J52" s="53"/>
       <c r="K52" s="34"/>
-      <c r="L52" s="195"/>
+      <c r="L52" s="194"/>
       <c r="M52" s="53"/>
       <c r="N52" s="53" t="s">
         <v>91</v>
@@ -6863,7 +6883,7 @@
       <c r="AJ52" s="45"/>
       <c r="AL52" s="119"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>82</v>
       </c>
@@ -6897,16 +6917,16 @@
       <c r="K53" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="L53" s="195" t="s">
+      <c r="L53" s="194" t="s">
         <v>104</v>
       </c>
       <c r="M53" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="N53" s="376" t="s">
-        <v>91</v>
-      </c>
-      <c r="O53" s="377" t="s">
+      <c r="N53" s="374" t="s">
+        <v>91</v>
+      </c>
+      <c r="O53" s="375" t="s">
         <v>91</v>
       </c>
       <c r="P53" s="61" t="s">
@@ -6921,19 +6941,19 @@
       <c r="S53" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="T53" s="379" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="379" t="s">
+      <c r="T53" s="377" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="377" t="s">
         <v>91</v>
       </c>
       <c r="V53" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="W53" s="400" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="399" t="s">
+      <c r="W53" s="398" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="397" t="s">
         <v>91</v>
       </c>
       <c r="Y53" s="51" t="s">
@@ -6949,10 +6969,10 @@
         <v>102</v>
       </c>
       <c r="AC53" s="140"/>
-      <c r="AD53" s="398" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE53" s="399" t="s">
+      <c r="AD53" s="396" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE53" s="397" t="s">
         <v>91</v>
       </c>
       <c r="AF53" s="51"/>
@@ -6961,7 +6981,7 @@
       <c r="AI53" s="51"/>
       <c r="AJ53" s="62"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>60</v>
       </c>
@@ -6980,7 +7000,7 @@
       <c r="F54" s="103"/>
       <c r="G54" s="87"/>
       <c r="H54" s="108"/>
-      <c r="I54" s="195" t="s">
+      <c r="I54" s="194" t="s">
         <v>102</v>
       </c>
       <c r="J54" s="34" t="s">
@@ -6989,7 +7009,7 @@
       <c r="K54" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="L54" s="195" t="s">
+      <c r="L54" s="194" t="s">
         <v>102</v>
       </c>
       <c r="M54" s="53" t="s">
@@ -7057,7 +7077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>52</v>
       </c>
@@ -7126,7 +7146,7 @@
       </c>
       <c r="AK55" s="119"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>79</v>
       </c>
@@ -7225,17 +7245,17 @@
       </c>
       <c r="AK56" s="119"/>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1">
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="337" t="s">
+      <c r="B57" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="338" t="s">
+      <c r="C57" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="338" t="s">
+      <c r="D57" s="336" t="s">
         <v>87</v>
       </c>
       <c r="E57" s="141" t="s">
@@ -7250,7 +7270,7 @@
       <c r="H57" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="208"/>
+      <c r="I57" s="207"/>
       <c r="J57" s="51"/>
       <c r="K57" s="51" t="s">
         <v>89</v>
@@ -7272,13 +7292,13 @@
       <c r="T57" s="59"/>
       <c r="U57" s="59"/>
       <c r="V57" s="52"/>
-      <c r="W57" s="339" t="s">
+      <c r="W57" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="X57" s="340" t="s">
+      <c r="X57" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="Y57" s="340" t="s">
+      <c r="Y57" s="338" t="s">
         <v>87</v>
       </c>
       <c r="Z57" s="59" t="s">
@@ -7293,106 +7313,106 @@
       <c r="AC57" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="AD57" s="209" t="s">
+      <c r="AD57" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="AE57" s="209" t="s">
+      <c r="AE57" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="AF57" s="209" t="s">
+      <c r="AF57" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="AG57" s="209"/>
+      <c r="AG57" s="208"/>
       <c r="AH57" s="59"/>
       <c r="AI57" s="51"/>
       <c r="AJ57" s="134"/>
       <c r="AK57" s="119"/>
     </row>
-    <row r="58" spans="1:38" ht="20.25" customHeight="1">
+    <row r="58" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="241"/>
-      <c r="C58" s="241"/>
-      <c r="D58" s="241"/>
-      <c r="E58" s="242"/>
-      <c r="F58" s="219"/>
+      <c r="B58" s="240"/>
+      <c r="C58" s="240"/>
+      <c r="D58" s="240"/>
+      <c r="E58" s="241"/>
+      <c r="F58" s="218"/>
       <c r="G58" s="117"/>
-      <c r="H58" s="243"/>
-      <c r="I58" s="198"/>
-      <c r="J58" s="244"/>
-      <c r="K58" s="244"/>
-      <c r="L58" s="178"/>
-      <c r="M58" s="245"/>
-      <c r="N58" s="178"/>
-      <c r="O58" s="246"/>
-      <c r="P58" s="329" t="s">
+      <c r="H58" s="242"/>
+      <c r="I58" s="197"/>
+      <c r="J58" s="243"/>
+      <c r="K58" s="243"/>
+      <c r="L58" s="177"/>
+      <c r="M58" s="244"/>
+      <c r="N58" s="177"/>
+      <c r="O58" s="245"/>
+      <c r="P58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="Q58" s="329" t="s">
+      <c r="Q58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="R58" s="329" t="s">
+      <c r="R58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="S58" s="329" t="s">
+      <c r="S58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="T58" s="329" t="s">
+      <c r="T58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="U58" s="330" t="s">
+      <c r="U58" s="328" t="s">
         <v>105</v>
       </c>
-      <c r="V58" s="331" t="s">
+      <c r="V58" s="329" t="s">
         <v>105</v>
       </c>
-      <c r="W58" s="298"/>
-      <c r="X58" s="298"/>
-      <c r="Y58" s="298"/>
-      <c r="Z58" s="329" t="s">
+      <c r="W58" s="296"/>
+      <c r="X58" s="296"/>
+      <c r="Y58" s="296"/>
+      <c r="Z58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="AA58" s="329" t="s">
+      <c r="AA58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="AB58" s="329" t="s">
+      <c r="AB58" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="AC58" s="370" t="s">
+      <c r="AC58" s="368" t="s">
         <v>105</v>
       </c>
-      <c r="AD58" s="334" t="s">
+      <c r="AD58" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="AE58" s="334" t="s">
+      <c r="AE58" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="AF58" s="334" t="s">
+      <c r="AF58" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="AG58" s="334" t="s">
+      <c r="AG58" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="AH58" s="335" t="s">
+      <c r="AH58" s="333" t="s">
         <v>105</v>
       </c>
-      <c r="AI58" s="335" t="s">
+      <c r="AI58" s="333" t="s">
         <v>105</v>
       </c>
-      <c r="AJ58" s="336" t="s">
+      <c r="AJ58" s="334" t="s">
         <v>105</v>
       </c>
       <c r="AK58" s="120"/>
     </row>
-    <row r="59" spans="1:38" ht="20.25" customHeight="1">
+    <row r="59" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="89" t="s">
         <v>75</v>
       </c>
       <c r="B59" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="247" t="s">
+      <c r="C59" s="246" t="s">
         <v>103</v>
       </c>
       <c r="D59" s="129" t="s">
@@ -7417,7 +7437,7 @@
       <c r="O59" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="P59" s="217" t="s">
+      <c r="P59" s="216" t="s">
         <v>102</v>
       </c>
       <c r="Q59" s="130" t="s">
@@ -7437,8 +7457,8 @@
       </c>
       <c r="V59" s="86"/>
       <c r="W59" s="92"/>
-      <c r="X59" s="247"/>
-      <c r="Y59" s="247" t="s">
+      <c r="X59" s="246"/>
+      <c r="Y59" s="246" t="s">
         <v>103</v>
       </c>
       <c r="Z59" s="51"/>
@@ -7451,16 +7471,16 @@
       <c r="AC59" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="AD59" s="200" t="s">
+      <c r="AD59" s="199" t="s">
         <v>103</v>
       </c>
       <c r="AE59" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="AF59" s="170" t="s">
+      <c r="AF59" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="AG59" s="170" t="s">
+      <c r="AG59" s="169" t="s">
         <v>102</v>
       </c>
       <c r="AH59" s="133"/>
@@ -7468,22 +7488,22 @@
       <c r="AJ59" s="134"/>
       <c r="AL59" s="119"/>
     </row>
-    <row r="60" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="268"/>
-      <c r="C60" s="269"/>
-      <c r="D60" s="269"/>
-      <c r="E60" s="269"/>
-      <c r="F60" s="270" t="s">
+      <c r="B60" s="266"/>
+      <c r="C60" s="267"/>
+      <c r="D60" s="267"/>
+      <c r="E60" s="267"/>
+      <c r="F60" s="268" t="s">
         <v>102</v>
       </c>
-      <c r="G60" s="271" t="s">
+      <c r="G60" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="H60" s="272"/>
-      <c r="I60" s="273" t="s">
+      <c r="H60" s="270"/>
+      <c r="I60" s="271" t="s">
         <v>102</v>
       </c>
       <c r="J60" s="132" t="s">
@@ -7492,26 +7512,26 @@
       <c r="K60" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="L60" s="273" t="s">
+      <c r="L60" s="271" t="s">
         <v>102</v>
       </c>
       <c r="M60" s="132"/>
-      <c r="N60" s="273"/>
-      <c r="O60" s="274"/>
-      <c r="P60" s="273"/>
-      <c r="Q60" s="275"/>
-      <c r="R60" s="163"/>
+      <c r="N60" s="271"/>
+      <c r="O60" s="272"/>
+      <c r="P60" s="271"/>
+      <c r="Q60" s="273"/>
+      <c r="R60" s="162"/>
       <c r="S60" s="132"/>
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
       <c r="V60" s="65"/>
-      <c r="W60" s="268" t="s">
+      <c r="W60" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="X60" s="269" t="s">
+      <c r="X60" s="267" t="s">
         <v>102</v>
       </c>
-      <c r="Y60" s="269" t="s">
+      <c r="Y60" s="267" t="s">
         <v>102</v>
       </c>
       <c r="Z60" s="63" t="s">
@@ -7523,17 +7543,17 @@
       <c r="AB60" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="AC60" s="276"/>
-      <c r="AD60" s="273"/>
+      <c r="AC60" s="274"/>
+      <c r="AD60" s="271"/>
       <c r="AE60" s="132"/>
       <c r="AF60" s="132"/>
       <c r="AG60" s="132"/>
-      <c r="AH60" s="268"/>
+      <c r="AH60" s="266"/>
       <c r="AI60" s="63"/>
-      <c r="AJ60" s="164"/>
+      <c r="AJ60" s="163"/>
       <c r="AL60" s="119"/>
     </row>
-    <row r="61" spans="1:38" ht="13.5" thickBot="1">
+    <row r="61" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
@@ -7570,72 +7590,72 @@
       <c r="AI61" s="66"/>
       <c r="AJ61" s="66"/>
     </row>
-    <row r="62" spans="1:38" ht="21" thickBot="1">
+    <row r="62" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="412" t="s">
+      <c r="B62" s="416" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="413"/>
-      <c r="D62" s="413"/>
-      <c r="E62" s="413"/>
-      <c r="F62" s="413"/>
-      <c r="G62" s="413"/>
-      <c r="H62" s="415"/>
-      <c r="I62" s="412" t="s">
+      <c r="C62" s="417"/>
+      <c r="D62" s="417"/>
+      <c r="E62" s="417"/>
+      <c r="F62" s="417"/>
+      <c r="G62" s="417"/>
+      <c r="H62" s="419"/>
+      <c r="I62" s="416" t="s">
         <v>6</v>
       </c>
-      <c r="J62" s="413"/>
-      <c r="K62" s="413"/>
-      <c r="L62" s="413"/>
-      <c r="M62" s="413"/>
-      <c r="N62" s="413"/>
-      <c r="O62" s="415"/>
-      <c r="P62" s="412" t="s">
+      <c r="J62" s="417"/>
+      <c r="K62" s="417"/>
+      <c r="L62" s="417"/>
+      <c r="M62" s="417"/>
+      <c r="N62" s="417"/>
+      <c r="O62" s="419"/>
+      <c r="P62" s="416" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" s="413"/>
-      <c r="R62" s="413"/>
-      <c r="S62" s="413"/>
-      <c r="T62" s="413"/>
-      <c r="U62" s="413"/>
-      <c r="V62" s="415"/>
-      <c r="W62" s="412" t="s">
+      <c r="Q62" s="417"/>
+      <c r="R62" s="417"/>
+      <c r="S62" s="417"/>
+      <c r="T62" s="417"/>
+      <c r="U62" s="417"/>
+      <c r="V62" s="419"/>
+      <c r="W62" s="416" t="s">
         <v>85</v>
       </c>
-      <c r="X62" s="413"/>
-      <c r="Y62" s="413"/>
-      <c r="Z62" s="413"/>
-      <c r="AA62" s="413"/>
-      <c r="AB62" s="413"/>
-      <c r="AC62" s="415"/>
-      <c r="AD62" s="412" t="s">
+      <c r="X62" s="417"/>
+      <c r="Y62" s="417"/>
+      <c r="Z62" s="417"/>
+      <c r="AA62" s="417"/>
+      <c r="AB62" s="417"/>
+      <c r="AC62" s="419"/>
+      <c r="AD62" s="416" t="s">
         <v>22</v>
       </c>
-      <c r="AE62" s="413"/>
-      <c r="AF62" s="413"/>
-      <c r="AG62" s="413"/>
-      <c r="AH62" s="413"/>
-      <c r="AI62" s="413"/>
-      <c r="AJ62" s="414"/>
-    </row>
-    <row r="66" spans="15:15">
+      <c r="AE62" s="417"/>
+      <c r="AF62" s="417"/>
+      <c r="AG62" s="417"/>
+      <c r="AH62" s="417"/>
+      <c r="AI62" s="417"/>
+      <c r="AJ62" s="418"/>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O66" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AD62:AJ62"/>
-    <mergeCell ref="W62:AC62"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="P62:V62"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AD62:AJ62"/>
+    <mergeCell ref="W62:AC62"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="P62:V62"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7647,36 +7667,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="212"/>
-    <col min="2" max="2" width="16.42578125" style="212" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="212" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="212" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="212"/>
+    <col min="1" max="1" width="9.109375" style="211"/>
+    <col min="2" max="2" width="16.44140625" style="211" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="211" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="211" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="211"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="416" t="s">
+    <row r="1" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="428" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="416"/>
-      <c r="D1" s="416"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B2" s="183"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="182"/>
       <c r="C2" s="94"/>
       <c r="D2" s="95"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B3" s="216"/>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="215"/>
       <c r="C3" s="94" t="s">
         <v>26</v>
       </c>
@@ -7684,13 +7704,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B4" s="183"/>
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="182"/>
       <c r="C4" s="94"/>
       <c r="D4" s="95"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B5" s="184"/>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="183"/>
       <c r="C5" s="94" t="s">
         <v>26</v>
       </c>
@@ -7698,13 +7718,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B6" s="183"/>
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="182"/>
       <c r="C6" s="94"/>
       <c r="D6" s="95"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B7" s="185"/>
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="184"/>
       <c r="C7" s="94" t="s">
         <v>26</v>
       </c>
@@ -7712,12 +7732,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B8" s="183"/>
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="182"/>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="96"/>
       <c r="C9" s="94" t="s">
         <v>26</v>
@@ -7726,26 +7746,26 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B10" s="186"/>
-      <c r="C10" s="187"/>
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="95"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B11" s="215"/>
-      <c r="C11" s="188"/>
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="214"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B12" s="189"/>
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="188"/>
       <c r="C12" s="94"/>
-      <c r="D12" s="190"/>
-      <c r="F12" s="214"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B13" s="191"/>
+      <c r="D12" s="189"/>
+      <c r="F12" s="213"/>
+    </row>
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="190"/>
       <c r="C13" s="94" t="s">
         <v>26</v>
       </c>
@@ -7753,13 +7773,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B14" s="183"/>
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="182"/>
       <c r="C14" s="94"/>
       <c r="D14" s="95"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B15" s="218"/>
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="217"/>
       <c r="C15" s="94" t="s">
         <v>26</v>
       </c>
@@ -7767,12 +7787,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B16" s="183"/>
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="182"/>
       <c r="C16" s="94"/>
       <c r="D16" s="95"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="97"/>
       <c r="C17" s="94" t="s">
         <v>26</v>
@@ -7781,13 +7801,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B18" s="183"/>
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="182"/>
       <c r="C18" s="94"/>
       <c r="D18" s="95"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B19" s="213"/>
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="212"/>
       <c r="C19" s="94" t="s">
         <v>26</v>
       </c>
@@ -7795,12 +7815,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B20" s="183"/>
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="182"/>
       <c r="C20" s="94"/>
       <c r="D20" s="95"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="98"/>
       <c r="C21" s="94" t="s">
         <v>26</v>
@@ -7809,12 +7829,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B22" s="183"/>
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="182"/>
       <c r="C22" s="94"/>
       <c r="D22" s="95"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="99"/>
       <c r="C23" s="94" t="s">
         <v>26</v>
@@ -7823,12 +7843,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="95"/>
     </row>
-    <row r="25" spans="2:4" ht="21" thickBot="1">
+    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="100"/>
       <c r="C25" s="94" t="s">
         <v>26</v>
@@ -7837,79 +7857,79 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B27" s="192"/>
-      <c r="C27" s="183"/>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="191"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="95" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
       <c r="D28" s="95"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="101"/>
-      <c r="C29" s="183"/>
+      <c r="C29" s="182"/>
       <c r="D29" s="95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-    </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="102"/>
-      <c r="C31" s="183"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="95">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B33" s="193"/>
-      <c r="C33" s="183"/>
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="192"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="95" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-    </row>
-    <row r="35" spans="2:4" ht="18">
-      <c r="B35" s="417" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+    </row>
+    <row r="35" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B35" s="429" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="417"/>
-      <c r="D35" s="417"/>
-    </row>
-    <row r="36" spans="2:4" ht="18">
-      <c r="B36" s="417" t="s">
+      <c r="C35" s="429"/>
+      <c r="D35" s="429"/>
+    </row>
+    <row r="36" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="429" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="417"/>
-      <c r="D36" s="417"/>
-    </row>
-    <row r="37" spans="2:4" ht="18">
-      <c r="B37" s="417" t="s">
+      <c r="C36" s="429"/>
+      <c r="D36" s="429"/>
+    </row>
+    <row r="37" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="429" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="417"/>
-      <c r="D37" s="417"/>
+      <c r="C37" s="429"/>
+      <c r="D37" s="429"/>
     </row>
   </sheetData>
   <mergeCells count="4">
